--- a/22년2차_청년매입임대_공급주택목록(서울지역본부).xlsx
+++ b/22년2차_청년매입임대_공급주택목록(서울지역본부).xlsx
@@ -1,28 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12165" windowHeight="4725"/>
   </bookViews>
   <sheets>
     <sheet name="청년" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">청년!$A$1:$K$267</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="191">
   <si>
     <t>주소</t>
   </si>
@@ -497,6 +493,177 @@
   </si>
   <si>
     <t>공급유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모집인원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시</t>
+  </si>
+  <si>
+    <t>종로숭인동(시티플러스)</t>
+  </si>
+  <si>
+    <t>지도 </t>
+  </si>
+  <si>
+    <t>홍보물 </t>
+  </si>
+  <si>
+    <t>해당없음</t>
+  </si>
+  <si>
+    <t>광진중곡동(삼화에코빌)</t>
+  </si>
+  <si>
+    <t>광진중곡동(제이앤빌)</t>
+  </si>
+  <si>
+    <t>광진중곡동(와이위드미)</t>
+  </si>
+  <si>
+    <t>동대문장안동(에스아이팰리스)</t>
+  </si>
+  <si>
+    <t>동대문장안동(진성홈타운)</t>
+  </si>
+  <si>
+    <t>동대문회기동(네스트스위트)</t>
+  </si>
+  <si>
+    <t>중랑망우동(위성힐하우스)</t>
+  </si>
+  <si>
+    <t>중랑상봉동(청운명가프라임)</t>
+  </si>
+  <si>
+    <t>중랑망우동(빌드아르떼)</t>
+  </si>
+  <si>
+    <t>중랑면목동(힐하우스)</t>
+  </si>
+  <si>
+    <t>중랑중화동(주함해븐빌)</t>
+  </si>
+  <si>
+    <t>중랑묵동(그린캐슬1차)</t>
+  </si>
+  <si>
+    <t>성북석관동(다우아트빌)</t>
+  </si>
+  <si>
+    <t>성북장위동</t>
+  </si>
+  <si>
+    <t>성북장위동(시온아트빌)</t>
+  </si>
+  <si>
+    <t>성북정릉동(형지리버빌)</t>
+  </si>
+  <si>
+    <t>성북석관동(다원캐슬)</t>
+  </si>
+  <si>
+    <t>성북종암동(해밀하우스)</t>
+  </si>
+  <si>
+    <t>강북미아동</t>
+  </si>
+  <si>
+    <t>강북미아동(청운미가)</t>
+  </si>
+  <si>
+    <t>강북수유동(은행빌라)</t>
+  </si>
+  <si>
+    <t>도봉창동</t>
+  </si>
+  <si>
+    <t>도봉도봉동(허브빌)</t>
+  </si>
+  <si>
+    <t>노원상계동</t>
+  </si>
+  <si>
+    <t>노원월계동(라인빌)</t>
+  </si>
+  <si>
+    <t>은평대조동(초원그린빌)</t>
+  </si>
+  <si>
+    <t>마포공덕동(공덕헤리지움)</t>
+  </si>
+  <si>
+    <t>양천신월동1</t>
+  </si>
+  <si>
+    <t>강서공항동</t>
+  </si>
+  <si>
+    <t>강서화곡동(SJ라벨라)</t>
+  </si>
+  <si>
+    <t>강서화곡동1</t>
+  </si>
+  <si>
+    <t>금천독산동1</t>
+  </si>
+  <si>
+    <t>영등포대림동(데에이치대림4차)</t>
+  </si>
+  <si>
+    <t>영등포영등포동1가(명남더블레스)</t>
+  </si>
+  <si>
+    <t>영등포영등포동7가(여의도써밋)</t>
+  </si>
+  <si>
+    <t>영등포대림동(파크에비뉴A)</t>
+  </si>
+  <si>
+    <t>동작대방동(보라매센트럴타운)</t>
+  </si>
+  <si>
+    <t>서초서초동(아이리스예당)</t>
+  </si>
+  <si>
+    <t>서초방배동</t>
+  </si>
+  <si>
+    <t>강남역삼동(아르테빌)</t>
+  </si>
+  <si>
+    <t>강남개포동(T&amp;K개포)</t>
+  </si>
+  <si>
+    <t>송파방이동(굿모닝빌)</t>
+  </si>
+  <si>
+    <t>송파삼전동(삼전파크빌)</t>
+  </si>
+  <si>
+    <t>강동성내동(주함해븐빌)</t>
+  </si>
+  <si>
+    <t>강동성내동(엘림하우스)</t>
+  </si>
+  <si>
+    <t>경기도</t>
+  </si>
+  <si>
+    <t>의정부시 가능동(드림)</t>
+  </si>
+  <si>
+    <t>양주덕정동(자이빌)</t>
+  </si>
+  <si>
+    <t>신청 건수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경쟁률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,11 +671,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.0"/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,8 +742,24 @@
       <name val="Dotum"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,8 +790,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -669,13 +859,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD7D7D7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD7D7D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD7D7D7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD7D7D7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD7D7D7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD7D7D7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD7D7D7"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD7D7D7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD7D7D7"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD7D7D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,7 +941,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,12 +989,43 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -756,9 +1037,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1019,7 +1297,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1027,11 +1305,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K267"/>
+  <dimension ref="A1:N267"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
@@ -1044,7 +1322,7 @@
     <col min="8" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" customHeight="1">
+    <row r="1" spans="1:14" ht="24" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
@@ -1078,8 +1356,17 @@
       <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L1" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>73</v>
       </c>
@@ -1113,8 +1400,20 @@
       <c r="K2" s="5">
         <v>130050</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L2" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M2" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>596</v>
+      </c>
+      <c r="N2" s="31">
+        <f>M2/L2</f>
+        <v>198.66666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -1148,8 +1447,20 @@
       <c r="K3" s="5">
         <v>236100</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L3" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M3" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>209</v>
+      </c>
+      <c r="N3" s="31">
+        <f t="shared" ref="N3:N66" si="0">M3/L3</f>
+        <v>69.666666666666671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>75</v>
       </c>
@@ -1183,8 +1494,20 @@
       <c r="K4" s="5">
         <v>199030</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L4" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M4" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>642</v>
+      </c>
+      <c r="N4" s="31">
+        <f t="shared" si="0"/>
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>75</v>
       </c>
@@ -1218,8 +1541,20 @@
       <c r="K5" s="5">
         <v>180750</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L5" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M5" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>642</v>
+      </c>
+      <c r="N5" s="31">
+        <f t="shared" si="0"/>
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>75</v>
       </c>
@@ -1253,8 +1588,20 @@
       <c r="K6" s="5">
         <v>182400</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L6" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M6" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>642</v>
+      </c>
+      <c r="N6" s="31">
+        <f t="shared" si="0"/>
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>75</v>
       </c>
@@ -1288,8 +1635,20 @@
       <c r="K7" s="5">
         <v>179160</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L7" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M7" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>642</v>
+      </c>
+      <c r="N7" s="31">
+        <f t="shared" si="0"/>
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>76</v>
       </c>
@@ -1323,8 +1682,20 @@
       <c r="K8" s="5">
         <v>211100</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L8" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M8" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>322</v>
+      </c>
+      <c r="N8" s="31">
+        <f t="shared" si="0"/>
+        <v>107.33333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>116</v>
       </c>
@@ -1358,8 +1729,18 @@
       <c r="K9" s="5">
         <v>149730</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L9" s="10">
+        <v>3</v>
+      </c>
+      <c r="M9" s="10">
+        <v>394</v>
+      </c>
+      <c r="N9" s="31">
+        <f t="shared" si="0"/>
+        <v>131.33333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>77</v>
       </c>
@@ -1393,8 +1774,20 @@
       <c r="K10" s="5">
         <v>341470</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L10" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M10" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>324</v>
+      </c>
+      <c r="N10" s="31">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>77</v>
       </c>
@@ -1428,8 +1821,20 @@
       <c r="K11" s="5">
         <v>258510</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L11" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M11" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>324</v>
+      </c>
+      <c r="N11" s="31">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>77</v>
       </c>
@@ -1463,8 +1868,20 @@
       <c r="K12" s="5">
         <v>181720</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L12" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M12" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>324</v>
+      </c>
+      <c r="N12" s="31">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>77</v>
       </c>
@@ -1498,8 +1915,20 @@
       <c r="K13" s="5">
         <v>254490</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L13" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M13" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>324</v>
+      </c>
+      <c r="N13" s="31">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>130</v>
       </c>
@@ -1533,8 +1962,18 @@
       <c r="K14" s="5">
         <v>163390</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L14" s="10">
+        <v>4</v>
+      </c>
+      <c r="M14" s="10">
+        <v>655</v>
+      </c>
+      <c r="N14" s="31">
+        <f t="shared" si="0"/>
+        <v>163.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>130</v>
       </c>
@@ -1568,8 +2007,18 @@
       <c r="K15" s="5">
         <v>163590</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L15" s="10">
+        <v>4</v>
+      </c>
+      <c r="M15" s="10">
+        <v>655</v>
+      </c>
+      <c r="N15" s="31">
+        <f t="shared" si="0"/>
+        <v>163.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>130</v>
       </c>
@@ -1603,8 +2052,18 @@
       <c r="K16" s="5">
         <v>157730</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L16" s="10">
+        <v>4</v>
+      </c>
+      <c r="M16" s="10">
+        <v>655</v>
+      </c>
+      <c r="N16" s="31">
+        <f t="shared" si="0"/>
+        <v>163.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>130</v>
       </c>
@@ -1638,8 +2097,18 @@
       <c r="K17" s="5">
         <v>205810</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L17" s="10">
+        <v>4</v>
+      </c>
+      <c r="M17" s="10">
+        <v>655</v>
+      </c>
+      <c r="N17" s="31">
+        <f t="shared" si="0"/>
+        <v>163.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>78</v>
       </c>
@@ -1673,8 +2142,20 @@
       <c r="K18" s="5">
         <v>240090</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L18" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M18" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>273</v>
+      </c>
+      <c r="N18" s="31">
+        <f t="shared" si="0"/>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>78</v>
       </c>
@@ -1708,8 +2189,20 @@
       <c r="K19" s="5">
         <v>181790</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L19" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M19" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>273</v>
+      </c>
+      <c r="N19" s="31">
+        <f t="shared" si="0"/>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>79</v>
       </c>
@@ -1743,8 +2236,20 @@
       <c r="K20" s="5">
         <v>261570</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L20" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M20" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>137</v>
+      </c>
+      <c r="N20" s="31">
+        <f t="shared" si="0"/>
+        <v>22.833333333333332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>79</v>
       </c>
@@ -1778,8 +2283,20 @@
       <c r="K21" s="5">
         <v>263710</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L21" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M21" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>137</v>
+      </c>
+      <c r="N21" s="31">
+        <f t="shared" si="0"/>
+        <v>22.833333333333332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>80</v>
       </c>
@@ -1813,8 +2330,20 @@
       <c r="K22" s="5">
         <v>199740</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L22" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="M22" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>640</v>
+      </c>
+      <c r="N22" s="31">
+        <f t="shared" si="0"/>
+        <v>42.666666666666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>80</v>
       </c>
@@ -1848,8 +2377,20 @@
       <c r="K23" s="5">
         <v>201840</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L23" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="M23" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>640</v>
+      </c>
+      <c r="N23" s="31">
+        <f t="shared" si="0"/>
+        <v>42.666666666666664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>81</v>
       </c>
@@ -1883,8 +2424,20 @@
       <c r="K24" s="5">
         <v>121400</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L24" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M24" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>197</v>
+      </c>
+      <c r="N24" s="31">
+        <f t="shared" si="0"/>
+        <v>65.666666666666671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>80</v>
       </c>
@@ -1918,8 +2471,20 @@
       <c r="K25" s="5">
         <v>204010</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L25" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="M25" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>640</v>
+      </c>
+      <c r="N25" s="31">
+        <f t="shared" si="0"/>
+        <v>42.666666666666664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>80</v>
       </c>
@@ -1953,8 +2518,20 @@
       <c r="K26" s="5">
         <v>204010</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L26" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="M26" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>640</v>
+      </c>
+      <c r="N26" s="31">
+        <f t="shared" si="0"/>
+        <v>42.666666666666664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>80</v>
       </c>
@@ -1988,8 +2565,20 @@
       <c r="K27" s="5">
         <v>204010</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L27" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="M27" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>640</v>
+      </c>
+      <c r="N27" s="31">
+        <f t="shared" si="0"/>
+        <v>42.666666666666664</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>82</v>
       </c>
@@ -2023,8 +2612,20 @@
       <c r="K28" s="5">
         <v>287150</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L28" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M28" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>305</v>
+      </c>
+      <c r="N28" s="31">
+        <f t="shared" si="0"/>
+        <v>25.416666666666668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>82</v>
       </c>
@@ -2058,8 +2659,20 @@
       <c r="K29" s="5">
         <v>282680</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L29" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M29" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>305</v>
+      </c>
+      <c r="N29" s="31">
+        <f t="shared" si="0"/>
+        <v>25.416666666666668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>82</v>
       </c>
@@ -2093,8 +2706,20 @@
       <c r="K30" s="5">
         <v>287280</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L30" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M30" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>305</v>
+      </c>
+      <c r="N30" s="31">
+        <f t="shared" si="0"/>
+        <v>25.416666666666668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>82</v>
       </c>
@@ -2128,8 +2753,20 @@
       <c r="K31" s="5">
         <v>291850</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L31" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M31" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>305</v>
+      </c>
+      <c r="N31" s="31">
+        <f t="shared" si="0"/>
+        <v>25.416666666666668</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>83</v>
       </c>
@@ -2163,8 +2800,20 @@
       <c r="K32" s="5">
         <v>196980</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L32" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M32" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>127</v>
+      </c>
+      <c r="N32" s="31">
+        <f t="shared" si="0"/>
+        <v>42.333333333333336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>13</v>
       </c>
@@ -2198,8 +2847,20 @@
       <c r="K33" s="5">
         <v>317410</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L33" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M33" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>282</v>
+      </c>
+      <c r="N33" s="31">
+        <f t="shared" si="0"/>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>84</v>
       </c>
@@ -2233,8 +2894,20 @@
       <c r="K34" s="5">
         <v>266940</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L34" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M34" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>104</v>
+      </c>
+      <c r="N34" s="31">
+        <f t="shared" si="0"/>
+        <v>17.333333333333332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>13</v>
       </c>
@@ -2268,8 +2941,20 @@
       <c r="K35" s="5">
         <v>327660</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L35" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M35" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>282</v>
+      </c>
+      <c r="N35" s="31">
+        <f t="shared" si="0"/>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>13</v>
       </c>
@@ -2303,8 +2988,20 @@
       <c r="K36" s="5">
         <v>245700</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L36" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M36" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>282</v>
+      </c>
+      <c r="N36" s="31">
+        <f t="shared" si="0"/>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>84</v>
       </c>
@@ -2338,8 +3035,20 @@
       <c r="K37" s="5">
         <v>286160</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L37" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M37" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>104</v>
+      </c>
+      <c r="N37" s="31">
+        <f t="shared" si="0"/>
+        <v>17.333333333333332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>13</v>
       </c>
@@ -2373,8 +3082,20 @@
       <c r="K38" s="5">
         <v>309350</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L38" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M38" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>282</v>
+      </c>
+      <c r="N38" s="31">
+        <f t="shared" si="0"/>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>85</v>
       </c>
@@ -2408,8 +3129,20 @@
       <c r="K39" s="5">
         <v>200780</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L39" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M39" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>197</v>
+      </c>
+      <c r="N39" s="31">
+        <f t="shared" si="0"/>
+        <v>16.416666666666668</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>85</v>
       </c>
@@ -2443,8 +3176,20 @@
       <c r="K40" s="5">
         <v>193830</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L40" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M40" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>197</v>
+      </c>
+      <c r="N40" s="31">
+        <f t="shared" si="0"/>
+        <v>16.416666666666668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>85</v>
       </c>
@@ -2478,8 +3223,20 @@
       <c r="K41" s="5">
         <v>227280</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L41" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M41" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>197</v>
+      </c>
+      <c r="N41" s="31">
+        <f t="shared" si="0"/>
+        <v>16.416666666666668</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>85</v>
       </c>
@@ -2513,8 +3270,20 @@
       <c r="K42" s="5">
         <v>271300</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L42" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M42" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>197</v>
+      </c>
+      <c r="N42" s="31">
+        <f t="shared" si="0"/>
+        <v>16.416666666666668</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>86</v>
       </c>
@@ -2548,8 +3317,20 @@
       <c r="K43" s="5">
         <v>202800</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L43" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M43" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>105</v>
+      </c>
+      <c r="N43" s="31">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>87</v>
       </c>
@@ -2583,8 +3364,20 @@
       <c r="K44" s="5">
         <v>189350</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L44" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M44" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>104</v>
+      </c>
+      <c r="N44" s="31">
+        <f t="shared" si="0"/>
+        <v>17.333333333333332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>87</v>
       </c>
@@ -2618,8 +3411,20 @@
       <c r="K45" s="5">
         <v>163640</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L45" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M45" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>104</v>
+      </c>
+      <c r="N45" s="31">
+        <f t="shared" si="0"/>
+        <v>17.333333333333332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>14</v>
       </c>
@@ -2653,8 +3458,20 @@
       <c r="K46" s="5">
         <v>73370</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L46" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M46" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>56</v>
+      </c>
+      <c r="N46" s="31">
+        <f t="shared" si="0"/>
+        <v>18.666666666666668</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>88</v>
       </c>
@@ -2688,8 +3505,20 @@
       <c r="K47" s="5">
         <v>224150</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L47" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M47" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>109</v>
+      </c>
+      <c r="N47" s="31">
+        <f t="shared" si="0"/>
+        <v>36.333333333333336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>118</v>
       </c>
@@ -2723,8 +3552,20 @@
       <c r="K48" s="5">
         <v>207970</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L48" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M48" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>151</v>
+      </c>
+      <c r="N48" s="31">
+        <f t="shared" si="0"/>
+        <v>50.333333333333336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>89</v>
       </c>
@@ -2758,8 +3599,20 @@
       <c r="K49" s="5">
         <v>119750</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L49" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M49" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>84</v>
+      </c>
+      <c r="N49" s="31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>15</v>
       </c>
@@ -2793,8 +3646,20 @@
       <c r="K50" s="5">
         <v>99820</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L50" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M50" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>53</v>
+      </c>
+      <c r="N50" s="31">
+        <f t="shared" si="0"/>
+        <v>17.666666666666668</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>90</v>
       </c>
@@ -2828,8 +3693,20 @@
       <c r="K51" s="5">
         <v>132860</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L51" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M51" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>84</v>
+      </c>
+      <c r="N51" s="31">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>90</v>
       </c>
@@ -2863,8 +3740,20 @@
       <c r="K52" s="5">
         <v>132380</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L52" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M52" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>84</v>
+      </c>
+      <c r="N52" s="31">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>91</v>
       </c>
@@ -2898,8 +3787,20 @@
       <c r="K53" s="5">
         <v>197890</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L53" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M53" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>58</v>
+      </c>
+      <c r="N53" s="31">
+        <f t="shared" si="0"/>
+        <v>19.333333333333332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>16</v>
       </c>
@@ -2933,8 +3834,20 @@
       <c r="K54" s="5">
         <v>235790</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L54" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M54" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>105</v>
+      </c>
+      <c r="N54" s="31">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>92</v>
       </c>
@@ -2968,8 +3881,20 @@
       <c r="K55" s="5">
         <v>161110</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L55" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M55" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>602</v>
+      </c>
+      <c r="N55" s="31">
+        <f t="shared" si="0"/>
+        <v>100.33333333333333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>92</v>
       </c>
@@ -3003,8 +3928,20 @@
       <c r="K56" s="5">
         <v>156700</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L56" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M56" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>602</v>
+      </c>
+      <c r="N56" s="31">
+        <f t="shared" si="0"/>
+        <v>100.33333333333333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3038,8 +3975,20 @@
       <c r="K57" s="5">
         <v>200620</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L57" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M57" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1337</v>
+      </c>
+      <c r="N57" s="31">
+        <f t="shared" si="0"/>
+        <v>222.83333333333334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>93</v>
       </c>
@@ -3073,8 +4022,20 @@
       <c r="K58" s="5">
         <v>152820</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L58" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M58" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1337</v>
+      </c>
+      <c r="N58" s="31">
+        <f t="shared" si="0"/>
+        <v>222.83333333333334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>17</v>
       </c>
@@ -3108,8 +4069,18 @@
       <c r="K59" s="5">
         <v>79410</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L59" s="10">
+        <v>3</v>
+      </c>
+      <c r="M59" s="10">
+        <v>72</v>
+      </c>
+      <c r="N59" s="31">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>94</v>
       </c>
@@ -3143,8 +4114,20 @@
       <c r="K60" s="5">
         <v>150340</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L60" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M60" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1134</v>
+      </c>
+      <c r="N60" s="31">
+        <f t="shared" si="0"/>
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>94</v>
       </c>
@@ -3178,8 +4161,20 @@
       <c r="K61" s="5">
         <v>136850</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L61" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M61" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1134</v>
+      </c>
+      <c r="N61" s="31">
+        <f t="shared" si="0"/>
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>18</v>
       </c>
@@ -3213,8 +4208,18 @@
       <c r="K62" s="5">
         <v>114040</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L62" s="10">
+        <v>3</v>
+      </c>
+      <c r="M62" s="10">
+        <v>81</v>
+      </c>
+      <c r="N62" s="31">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>94</v>
       </c>
@@ -3248,8 +4253,20 @@
       <c r="K63" s="5">
         <v>160490</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L63" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M63" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1134</v>
+      </c>
+      <c r="N63" s="31">
+        <f t="shared" si="0"/>
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>94</v>
       </c>
@@ -3283,8 +4300,20 @@
       <c r="K64" s="5">
         <v>166470</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L64" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>12</v>
+      </c>
+      <c r="M64" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1134</v>
+      </c>
+      <c r="N64" s="31">
+        <f t="shared" si="0"/>
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>18</v>
       </c>
@@ -3318,8 +4347,18 @@
       <c r="K65" s="5">
         <v>142750</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L65" s="10">
+        <v>1</v>
+      </c>
+      <c r="M65" s="10">
+        <v>81</v>
+      </c>
+      <c r="N65" s="31">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>18</v>
       </c>
@@ -3353,8 +4392,18 @@
       <c r="K66" s="5">
         <v>99780</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L66" s="10">
+        <v>1</v>
+      </c>
+      <c r="M66" s="10">
+        <v>81</v>
+      </c>
+      <c r="N66" s="31">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>18</v>
       </c>
@@ -3388,8 +4437,18 @@
       <c r="K67" s="5">
         <v>108860</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L67" s="10">
+        <v>1</v>
+      </c>
+      <c r="M67" s="10">
+        <v>81</v>
+      </c>
+      <c r="N67" s="31">
+        <f t="shared" ref="N67:N130" si="1">M67/L67</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>18</v>
       </c>
@@ -3423,8 +4482,18 @@
       <c r="K68" s="5">
         <v>105730</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L68" s="10">
+        <v>1</v>
+      </c>
+      <c r="M68" s="10">
+        <v>81</v>
+      </c>
+      <c r="N68" s="31">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>95</v>
       </c>
@@ -3458,8 +4527,20 @@
       <c r="K69" s="5">
         <v>93060</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L69" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M69" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>116</v>
+      </c>
+      <c r="N69" s="31">
+        <f t="shared" si="1"/>
+        <v>38.666666666666664</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>96</v>
       </c>
@@ -3493,8 +4574,19 @@
       <c r="K70" s="5">
         <v>131680</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L70" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,1)</f>
+        <v>6</v>
+      </c>
+      <c r="M70" s="10">
+        <v>631</v>
+      </c>
+      <c r="N70" s="31">
+        <f t="shared" si="1"/>
+        <v>105.16666666666667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
@@ -3528,8 +4620,19 @@
       <c r="K71" s="5">
         <v>135250</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L71" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,1)</f>
+        <v>6</v>
+      </c>
+      <c r="M71" s="10">
+        <v>631</v>
+      </c>
+      <c r="N71" s="31">
+        <f t="shared" si="1"/>
+        <v>105.16666666666667</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>97</v>
       </c>
@@ -3563,8 +4666,19 @@
       <c r="K72" s="5">
         <v>232820</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L72" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,1)</f>
+        <v>6</v>
+      </c>
+      <c r="M72" s="10">
+        <v>866</v>
+      </c>
+      <c r="N72" s="31">
+        <f t="shared" si="1"/>
+        <v>144.33333333333334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>97</v>
       </c>
@@ -3598,8 +4712,19 @@
       <c r="K73" s="5">
         <v>231000</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L73" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,1)</f>
+        <v>6</v>
+      </c>
+      <c r="M73" s="10">
+        <v>866</v>
+      </c>
+      <c r="N73" s="31">
+        <f t="shared" si="1"/>
+        <v>144.33333333333334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>97</v>
       </c>
@@ -3633,8 +4758,19 @@
       <c r="K74" s="5">
         <v>195540</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L74" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,1)</f>
+        <v>6</v>
+      </c>
+      <c r="M74" s="10">
+        <v>866</v>
+      </c>
+      <c r="N74" s="31">
+        <f t="shared" si="1"/>
+        <v>144.33333333333334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>97</v>
       </c>
@@ -3668,8 +4804,19 @@
       <c r="K75" s="5">
         <v>195540</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L75" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,1)</f>
+        <v>6</v>
+      </c>
+      <c r="M75" s="10">
+        <v>866</v>
+      </c>
+      <c r="N75" s="31">
+        <f t="shared" si="1"/>
+        <v>144.33333333333334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>98</v>
       </c>
@@ -3703,8 +4850,20 @@
       <c r="K76" s="5">
         <v>155470</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L76" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M76" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>418</v>
+      </c>
+      <c r="N76" s="31">
+        <f t="shared" si="1"/>
+        <v>69.666666666666671</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>98</v>
       </c>
@@ -3738,8 +4897,20 @@
       <c r="K77" s="5">
         <v>216070</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L77" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M77" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>418</v>
+      </c>
+      <c r="N77" s="31">
+        <f t="shared" si="1"/>
+        <v>69.666666666666671</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>120</v>
       </c>
@@ -3773,8 +4944,18 @@
       <c r="K78" s="5">
         <v>264800</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L78" s="10">
+        <v>9</v>
+      </c>
+      <c r="M78" s="10">
+        <v>1689</v>
+      </c>
+      <c r="N78" s="31">
+        <f t="shared" si="1"/>
+        <v>187.66666666666666</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>120</v>
       </c>
@@ -3808,8 +4989,18 @@
       <c r="K79" s="5">
         <v>217410</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L79" s="10">
+        <v>9</v>
+      </c>
+      <c r="M79" s="10">
+        <v>1689</v>
+      </c>
+      <c r="N79" s="31">
+        <f t="shared" si="1"/>
+        <v>187.66666666666666</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>120</v>
       </c>
@@ -3843,8 +5034,18 @@
       <c r="K80" s="5">
         <v>217600</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L80" s="10">
+        <v>9</v>
+      </c>
+      <c r="M80" s="10">
+        <v>1689</v>
+      </c>
+      <c r="N80" s="31">
+        <f t="shared" si="1"/>
+        <v>187.66666666666666</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>124</v>
       </c>
@@ -3878,8 +5079,18 @@
       <c r="K81" s="5">
         <v>63450</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L81" s="10">
+        <v>6</v>
+      </c>
+      <c r="M81" s="10">
+        <v>214</v>
+      </c>
+      <c r="N81" s="31">
+        <f t="shared" si="1"/>
+        <v>35.666666666666664</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>124</v>
       </c>
@@ -3913,8 +5124,18 @@
       <c r="K82" s="5">
         <v>62350</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L82" s="10">
+        <v>6</v>
+      </c>
+      <c r="M82" s="10">
+        <v>214</v>
+      </c>
+      <c r="N82" s="31">
+        <f t="shared" si="1"/>
+        <v>35.666666666666664</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>99</v>
       </c>
@@ -3948,8 +5169,20 @@
       <c r="K83" s="5">
         <v>280720</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L83" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>9</v>
+      </c>
+      <c r="M83" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>616</v>
+      </c>
+      <c r="N83" s="31">
+        <f t="shared" si="1"/>
+        <v>68.444444444444443</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>100</v>
       </c>
@@ -3983,8 +5216,20 @@
       <c r="K84" s="5">
         <v>236010</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L84" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M84" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>230</v>
+      </c>
+      <c r="N84" s="31">
+        <f t="shared" si="1"/>
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>99</v>
       </c>
@@ -4018,8 +5263,20 @@
       <c r="K85" s="5">
         <v>241380</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L85" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>9</v>
+      </c>
+      <c r="M85" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>616</v>
+      </c>
+      <c r="N85" s="31">
+        <f t="shared" si="1"/>
+        <v>68.444444444444443</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A86" s="4" t="s">
         <v>99</v>
       </c>
@@ -4053,8 +5310,20 @@
       <c r="K86" s="5">
         <v>227310</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L86" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>9</v>
+      </c>
+      <c r="M86" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>616</v>
+      </c>
+      <c r="N86" s="31">
+        <f t="shared" si="1"/>
+        <v>68.444444444444443</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>101</v>
       </c>
@@ -4088,8 +5357,20 @@
       <c r="K87" s="5">
         <v>339360</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L87" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M87" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>996</v>
+      </c>
+      <c r="N87" s="31">
+        <f t="shared" si="1"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>102</v>
       </c>
@@ -4123,8 +5404,20 @@
       <c r="K88" s="5">
         <v>251940</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L88" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>26</v>
+      </c>
+      <c r="M88" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1073</v>
+      </c>
+      <c r="N88" s="31">
+        <f t="shared" si="1"/>
+        <v>41.269230769230766</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>102</v>
       </c>
@@ -4158,8 +5451,20 @@
       <c r="K89" s="5">
         <v>280290</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L89" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>26</v>
+      </c>
+      <c r="M89" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1073</v>
+      </c>
+      <c r="N89" s="31">
+        <f t="shared" si="1"/>
+        <v>41.269230769230766</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>102</v>
       </c>
@@ -4193,8 +5498,20 @@
       <c r="K90" s="5">
         <v>280290</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L90" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>26</v>
+      </c>
+      <c r="M90" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1073</v>
+      </c>
+      <c r="N90" s="31">
+        <f t="shared" si="1"/>
+        <v>41.269230769230766</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A91" s="4" t="s">
         <v>102</v>
       </c>
@@ -4228,8 +5545,20 @@
       <c r="K91" s="5">
         <v>255110</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L91" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>26</v>
+      </c>
+      <c r="M91" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1073</v>
+      </c>
+      <c r="N91" s="31">
+        <f t="shared" si="1"/>
+        <v>41.269230769230766</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>102</v>
       </c>
@@ -4263,8 +5592,20 @@
       <c r="K92" s="5">
         <v>257360</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L92" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>26</v>
+      </c>
+      <c r="M92" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1073</v>
+      </c>
+      <c r="N92" s="31">
+        <f t="shared" si="1"/>
+        <v>41.269230769230766</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A93" s="4" t="s">
         <v>102</v>
       </c>
@@ -4298,8 +5639,20 @@
       <c r="K93" s="5">
         <v>286630</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L93" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>26</v>
+      </c>
+      <c r="M93" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1073</v>
+      </c>
+      <c r="N93" s="31">
+        <f t="shared" si="1"/>
+        <v>41.269230769230766</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>102</v>
       </c>
@@ -4333,8 +5686,20 @@
       <c r="K94" s="5">
         <v>286630</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L94" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>26</v>
+      </c>
+      <c r="M94" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1073</v>
+      </c>
+      <c r="N94" s="31">
+        <f t="shared" si="1"/>
+        <v>41.269230769230766</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>102</v>
       </c>
@@ -4368,8 +5733,20 @@
       <c r="K95" s="5">
         <v>259610</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L95" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>26</v>
+      </c>
+      <c r="M95" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1073</v>
+      </c>
+      <c r="N95" s="31">
+        <f t="shared" si="1"/>
+        <v>41.269230769230766</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A96" s="4" t="s">
         <v>102</v>
       </c>
@@ -4403,8 +5780,20 @@
       <c r="K96" s="5">
         <v>275130</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L96" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>26</v>
+      </c>
+      <c r="M96" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1073</v>
+      </c>
+      <c r="N96" s="31">
+        <f t="shared" si="1"/>
+        <v>41.269230769230766</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>102</v>
       </c>
@@ -4438,8 +5827,20 @@
       <c r="K97" s="5">
         <v>241080</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L97" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>26</v>
+      </c>
+      <c r="M97" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1073</v>
+      </c>
+      <c r="N97" s="31">
+        <f t="shared" si="1"/>
+        <v>41.269230769230766</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A98" s="4" t="s">
         <v>102</v>
       </c>
@@ -4473,8 +5874,20 @@
       <c r="K98" s="5">
         <v>277380</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L98" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>26</v>
+      </c>
+      <c r="M98" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1073</v>
+      </c>
+      <c r="N98" s="31">
+        <f t="shared" si="1"/>
+        <v>41.269230769230766</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A99" s="4" t="s">
         <v>102</v>
       </c>
@@ -4508,8 +5921,20 @@
       <c r="K99" s="5">
         <v>291570</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L99" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>26</v>
+      </c>
+      <c r="M99" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1073</v>
+      </c>
+      <c r="N99" s="31">
+        <f t="shared" si="1"/>
+        <v>41.269230769230766</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A100" s="4" t="s">
         <v>102</v>
       </c>
@@ -4543,8 +5968,20 @@
       <c r="K100" s="5">
         <v>303110</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L100" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>26</v>
+      </c>
+      <c r="M100" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1073</v>
+      </c>
+      <c r="N100" s="31">
+        <f t="shared" si="1"/>
+        <v>41.269230769230766</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A101" s="4" t="s">
         <v>103</v>
       </c>
@@ -4578,8 +6015,20 @@
       <c r="K101" s="5">
         <v>185040</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L101" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>22</v>
+      </c>
+      <c r="M101" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="N101" s="31">
+        <f t="shared" si="1"/>
+        <v>68.181818181818187</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>103</v>
       </c>
@@ -4613,8 +6062,20 @@
       <c r="K102" s="5">
         <v>205250</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L102" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>22</v>
+      </c>
+      <c r="M102" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="N102" s="31">
+        <f t="shared" si="1"/>
+        <v>68.181818181818187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A103" s="4" t="s">
         <v>103</v>
       </c>
@@ -4648,8 +6109,20 @@
       <c r="K103" s="5">
         <v>212490</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L103" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>22</v>
+      </c>
+      <c r="M103" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="N103" s="31">
+        <f t="shared" si="1"/>
+        <v>68.181818181818187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A104" s="4" t="s">
         <v>103</v>
       </c>
@@ -4683,8 +6156,20 @@
       <c r="K104" s="5">
         <v>192840</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L104" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>22</v>
+      </c>
+      <c r="M104" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="N104" s="31">
+        <f t="shared" si="1"/>
+        <v>68.181818181818187</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A105" s="4" t="s">
         <v>103</v>
       </c>
@@ -4718,8 +6203,20 @@
       <c r="K105" s="5">
         <v>186370</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L105" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>22</v>
+      </c>
+      <c r="M105" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="N105" s="31">
+        <f t="shared" si="1"/>
+        <v>68.181818181818187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A106" s="4" t="s">
         <v>103</v>
       </c>
@@ -4753,8 +6250,20 @@
       <c r="K106" s="5">
         <v>207500</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L106" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>22</v>
+      </c>
+      <c r="M106" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="N106" s="31">
+        <f t="shared" si="1"/>
+        <v>68.181818181818187</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A107" s="4" t="s">
         <v>103</v>
       </c>
@@ -4788,8 +6297,20 @@
       <c r="K107" s="5">
         <v>215650</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L107" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>22</v>
+      </c>
+      <c r="M107" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="N107" s="31">
+        <f t="shared" si="1"/>
+        <v>68.181818181818187</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A108" s="4" t="s">
         <v>103</v>
       </c>
@@ -4823,8 +6344,20 @@
       <c r="K108" s="5">
         <v>196000</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L108" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>22</v>
+      </c>
+      <c r="M108" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="N108" s="31">
+        <f t="shared" si="1"/>
+        <v>68.181818181818187</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A109" s="4" t="s">
         <v>103</v>
       </c>
@@ -4858,8 +6391,20 @@
       <c r="K109" s="5">
         <v>232710</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L109" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>22</v>
+      </c>
+      <c r="M109" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="N109" s="31">
+        <f t="shared" si="1"/>
+        <v>68.181818181818187</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A110" s="4" t="s">
         <v>103</v>
       </c>
@@ -4893,8 +6438,20 @@
       <c r="K110" s="5">
         <v>268070</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L110" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>22</v>
+      </c>
+      <c r="M110" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="N110" s="31">
+        <f t="shared" si="1"/>
+        <v>68.181818181818187</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A111" s="4" t="s">
         <v>103</v>
       </c>
@@ -4928,8 +6485,20 @@
       <c r="K111" s="5">
         <v>329510</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L111" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>22</v>
+      </c>
+      <c r="M111" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="N111" s="31">
+        <f t="shared" si="1"/>
+        <v>68.181818181818187</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A112" s="4" t="s">
         <v>104</v>
       </c>
@@ -4963,8 +6532,20 @@
       <c r="K112" s="5">
         <v>276700</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L112" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>30</v>
+      </c>
+      <c r="M112" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>2134</v>
+      </c>
+      <c r="N112" s="31">
+        <f t="shared" si="1"/>
+        <v>71.13333333333334</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A113" s="4" t="s">
         <v>104</v>
       </c>
@@ -4998,8 +6579,20 @@
       <c r="K113" s="5">
         <v>304020</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L113" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>30</v>
+      </c>
+      <c r="M113" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>2134</v>
+      </c>
+      <c r="N113" s="31">
+        <f t="shared" si="1"/>
+        <v>71.13333333333334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A114" s="4" t="s">
         <v>104</v>
       </c>
@@ -5033,8 +6626,20 @@
       <c r="K114" s="5">
         <v>319350</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L114" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>30</v>
+      </c>
+      <c r="M114" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>2134</v>
+      </c>
+      <c r="N114" s="31">
+        <f t="shared" si="1"/>
+        <v>71.13333333333334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A115" s="4" t="s">
         <v>104</v>
       </c>
@@ -5068,8 +6673,20 @@
       <c r="K115" s="5">
         <v>313250</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L115" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>30</v>
+      </c>
+      <c r="M115" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>2134</v>
+      </c>
+      <c r="N115" s="31">
+        <f t="shared" si="1"/>
+        <v>71.13333333333334</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A116" s="4" t="s">
         <v>104</v>
       </c>
@@ -5103,8 +6720,20 @@
       <c r="K116" s="5">
         <v>276700</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L116" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>30</v>
+      </c>
+      <c r="M116" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>2134</v>
+      </c>
+      <c r="N116" s="31">
+        <f t="shared" si="1"/>
+        <v>71.13333333333334</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A117" s="4" t="s">
         <v>104</v>
       </c>
@@ -5138,8 +6767,20 @@
       <c r="K117" s="5">
         <v>304020</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L117" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>30</v>
+      </c>
+      <c r="M117" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>2134</v>
+      </c>
+      <c r="N117" s="31">
+        <f t="shared" si="1"/>
+        <v>71.13333333333334</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A118" s="4" t="s">
         <v>104</v>
       </c>
@@ -5173,8 +6814,20 @@
       <c r="K118" s="5">
         <v>319350</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L118" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>30</v>
+      </c>
+      <c r="M118" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>2134</v>
+      </c>
+      <c r="N118" s="31">
+        <f t="shared" si="1"/>
+        <v>71.13333333333334</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A119" s="4" t="s">
         <v>104</v>
       </c>
@@ -5208,8 +6861,20 @@
       <c r="K119" s="5">
         <v>313250</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L119" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>30</v>
+      </c>
+      <c r="M119" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>2134</v>
+      </c>
+      <c r="N119" s="31">
+        <f t="shared" si="1"/>
+        <v>71.13333333333334</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A120" s="4" t="s">
         <v>104</v>
       </c>
@@ -5243,8 +6908,20 @@
       <c r="K120" s="5">
         <v>276700</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L120" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>30</v>
+      </c>
+      <c r="M120" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>2134</v>
+      </c>
+      <c r="N120" s="31">
+        <f t="shared" si="1"/>
+        <v>71.13333333333334</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A121" s="4" t="s">
         <v>104</v>
       </c>
@@ -5278,8 +6955,20 @@
       <c r="K121" s="5">
         <v>276130</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L121" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>30</v>
+      </c>
+      <c r="M121" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>2134</v>
+      </c>
+      <c r="N121" s="31">
+        <f t="shared" si="1"/>
+        <v>71.13333333333334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A122" s="4" t="s">
         <v>104</v>
       </c>
@@ -5313,8 +7002,20 @@
       <c r="K122" s="5">
         <v>292890</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L122" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>30</v>
+      </c>
+      <c r="M122" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>2134</v>
+      </c>
+      <c r="N122" s="31">
+        <f t="shared" si="1"/>
+        <v>71.13333333333334</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A123" s="4" t="s">
         <v>104</v>
       </c>
@@ -5348,8 +7049,20 @@
       <c r="K123" s="5">
         <v>313260</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L123" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>30</v>
+      </c>
+      <c r="M123" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>2134</v>
+      </c>
+      <c r="N123" s="31">
+        <f t="shared" si="1"/>
+        <v>71.13333333333334</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A124" s="4" t="s">
         <v>104</v>
       </c>
@@ -5383,8 +7096,20 @@
       <c r="K124" s="5">
         <v>280280</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L124" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>30</v>
+      </c>
+      <c r="M124" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>2134</v>
+      </c>
+      <c r="N124" s="31">
+        <f t="shared" si="1"/>
+        <v>71.13333333333334</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A125" s="4" t="s">
         <v>104</v>
       </c>
@@ -5418,8 +7143,20 @@
       <c r="K125" s="5">
         <v>362160</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L125" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>30</v>
+      </c>
+      <c r="M125" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>2134</v>
+      </c>
+      <c r="N125" s="31">
+        <f t="shared" si="1"/>
+        <v>71.13333333333334</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A126" s="4" t="s">
         <v>104</v>
       </c>
@@ -5453,8 +7190,20 @@
       <c r="K126" s="5">
         <v>326360</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L126" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>30</v>
+      </c>
+      <c r="M126" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>2134</v>
+      </c>
+      <c r="N126" s="31">
+        <f t="shared" si="1"/>
+        <v>71.13333333333334</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A127" s="4" t="s">
         <v>126</v>
       </c>
@@ -5488,8 +7237,20 @@
       <c r="K127" s="5">
         <v>165700</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L127" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M127" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N127" s="31">
+        <f t="shared" si="1"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A128" s="4" t="s">
         <v>126</v>
       </c>
@@ -5523,8 +7284,20 @@
       <c r="K128" s="5">
         <v>165700</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L128" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M128" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N128" s="31">
+        <f t="shared" si="1"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A129" s="4" t="s">
         <v>126</v>
       </c>
@@ -5558,8 +7331,20 @@
       <c r="K129" s="5">
         <v>165700</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L129" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M129" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N129" s="31">
+        <f t="shared" si="1"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A130" s="4" t="s">
         <v>126</v>
       </c>
@@ -5593,8 +7378,20 @@
       <c r="K130" s="5">
         <v>165700</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L130" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M130" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N130" s="31">
+        <f t="shared" si="1"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A131" s="4" t="s">
         <v>126</v>
       </c>
@@ -5628,8 +7425,20 @@
       <c r="K131" s="5">
         <v>165700</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L131" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M131" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N131" s="31">
+        <f t="shared" ref="N131:N194" si="2">M131/L131</f>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A132" s="4" t="s">
         <v>126</v>
       </c>
@@ -5663,8 +7472,20 @@
       <c r="K132" s="5">
         <v>165700</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L132" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M132" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N132" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A133" s="4" t="s">
         <v>126</v>
       </c>
@@ -5698,8 +7519,20 @@
       <c r="K133" s="5">
         <v>165700</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L133" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M133" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N133" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A134" s="4" t="s">
         <v>126</v>
       </c>
@@ -5733,8 +7566,20 @@
       <c r="K134" s="5">
         <v>165700</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L134" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M134" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N134" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A135" s="4" t="s">
         <v>126</v>
       </c>
@@ -5768,8 +7613,20 @@
       <c r="K135" s="5">
         <v>161420</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L135" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M135" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N135" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A136" s="4" t="s">
         <v>126</v>
       </c>
@@ -5803,8 +7660,20 @@
       <c r="K136" s="5">
         <v>161420</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L136" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M136" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N136" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A137" s="4" t="s">
         <v>126</v>
       </c>
@@ -5838,8 +7707,20 @@
       <c r="K137" s="5">
         <v>161420</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L137" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M137" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N137" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A138" s="4" t="s">
         <v>126</v>
       </c>
@@ -5873,8 +7754,20 @@
       <c r="K138" s="5">
         <v>167530</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L138" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M138" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N138" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A139" s="4" t="s">
         <v>126</v>
       </c>
@@ -5908,8 +7801,20 @@
       <c r="K139" s="5">
         <v>167530</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L139" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M139" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N139" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A140" s="4" t="s">
         <v>126</v>
       </c>
@@ -5943,8 +7848,20 @@
       <c r="K140" s="5">
         <v>167530</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L140" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M140" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N140" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A141" s="4" t="s">
         <v>126</v>
       </c>
@@ -5978,8 +7895,20 @@
       <c r="K141" s="5">
         <v>167530</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L141" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M141" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N141" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A142" s="4" t="s">
         <v>126</v>
       </c>
@@ -6013,8 +7942,20 @@
       <c r="K142" s="5">
         <v>167530</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L142" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M142" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N142" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A143" s="4" t="s">
         <v>126</v>
       </c>
@@ -6048,8 +7989,20 @@
       <c r="K143" s="5">
         <v>167530</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L143" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M143" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N143" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A144" s="4" t="s">
         <v>126</v>
       </c>
@@ -6083,8 +8036,20 @@
       <c r="K144" s="5">
         <v>167530</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L144" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M144" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N144" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A145" s="4" t="s">
         <v>126</v>
       </c>
@@ -6118,8 +8083,20 @@
       <c r="K145" s="5">
         <v>169410</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L145" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M145" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N145" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A146" s="4" t="s">
         <v>126</v>
       </c>
@@ -6153,8 +8130,20 @@
       <c r="K146" s="5">
         <v>169410</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L146" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M146" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N146" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A147" s="4" t="s">
         <v>126</v>
       </c>
@@ -6188,8 +8177,20 @@
       <c r="K147" s="5">
         <v>169410</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L147" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M147" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N147" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A148" s="4" t="s">
         <v>126</v>
       </c>
@@ -6223,8 +8224,20 @@
       <c r="K148" s="5">
         <v>163630</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L148" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M148" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N148" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A149" s="4" t="s">
         <v>126</v>
       </c>
@@ -6258,8 +8271,20 @@
       <c r="K149" s="5">
         <v>163630</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L149" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M149" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N149" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A150" s="4" t="s">
         <v>126</v>
       </c>
@@ -6293,8 +8318,20 @@
       <c r="K150" s="5">
         <v>163630</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L150" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M150" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N150" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A151" s="4" t="s">
         <v>126</v>
       </c>
@@ -6328,8 +8365,20 @@
       <c r="K151" s="5">
         <v>169410</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L151" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M151" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N151" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A152" s="4" t="s">
         <v>126</v>
       </c>
@@ -6363,8 +8412,20 @@
       <c r="K152" s="5">
         <v>169410</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L152" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M152" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N152" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A153" s="4" t="s">
         <v>126</v>
       </c>
@@ -6398,8 +8459,20 @@
       <c r="K153" s="5">
         <v>169410</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L153" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M153" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N153" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A154" s="4" t="s">
         <v>126</v>
       </c>
@@ -6433,8 +8506,20 @@
       <c r="K154" s="5">
         <v>169410</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L154" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M154" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N154" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A155" s="4" t="s">
         <v>126</v>
       </c>
@@ -6468,8 +8553,20 @@
       <c r="K155" s="5">
         <v>169410</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L155" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M155" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N155" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A156" s="4" t="s">
         <v>126</v>
       </c>
@@ -6503,8 +8600,20 @@
       <c r="K156" s="5">
         <v>169410</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L156" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M156" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N156" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A157" s="4" t="s">
         <v>126</v>
       </c>
@@ -6538,8 +8647,20 @@
       <c r="K157" s="5">
         <v>169410</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L157" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M157" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N157" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A158" s="4" t="s">
         <v>126</v>
       </c>
@@ -6573,8 +8694,20 @@
       <c r="K158" s="5">
         <v>171240</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L158" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M158" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N158" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A159" s="4" t="s">
         <v>126</v>
       </c>
@@ -6608,8 +8741,20 @@
       <c r="K159" s="5">
         <v>171240</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L159" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M159" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N159" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A160" s="4" t="s">
         <v>126</v>
       </c>
@@ -6643,8 +8788,20 @@
       <c r="K160" s="5">
         <v>171240</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L160" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M160" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N160" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A161" s="4" t="s">
         <v>126</v>
       </c>
@@ -6678,8 +8835,20 @@
       <c r="K161" s="5">
         <v>165420</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L161" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M161" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N161" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A162" s="4" t="s">
         <v>126</v>
       </c>
@@ -6713,8 +8882,20 @@
       <c r="K162" s="5">
         <v>165420</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L162" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M162" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N162" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A163" s="4" t="s">
         <v>126</v>
       </c>
@@ -6748,8 +8929,20 @@
       <c r="K163" s="5">
         <v>165420</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L163" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M163" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N163" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A164" s="4" t="s">
         <v>126</v>
       </c>
@@ -6783,8 +8976,20 @@
       <c r="K164" s="5">
         <v>173110</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L164" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M164" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N164" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A165" s="4" t="s">
         <v>126</v>
       </c>
@@ -6818,8 +9023,20 @@
       <c r="K165" s="5">
         <v>173110</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L165" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M165" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N165" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A166" s="4" t="s">
         <v>126</v>
       </c>
@@ -6853,8 +9070,20 @@
       <c r="K166" s="5">
         <v>173110</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L166" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M166" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N166" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A167" s="4" t="s">
         <v>126</v>
       </c>
@@ -6888,8 +9117,20 @@
       <c r="K167" s="5">
         <v>173110</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L167" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M167" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N167" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A168" s="4" t="s">
         <v>126</v>
       </c>
@@ -6923,8 +9164,20 @@
       <c r="K168" s="5">
         <v>173110</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L168" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M168" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N168" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A169" s="4" t="s">
         <v>126</v>
       </c>
@@ -6958,8 +9211,20 @@
       <c r="K169" s="5">
         <v>173110</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L169" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M169" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N169" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A170" s="4" t="s">
         <v>126</v>
       </c>
@@ -6993,8 +9258,20 @@
       <c r="K170" s="5">
         <v>173110</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L170" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M170" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N170" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A171" s="4" t="s">
         <v>126</v>
       </c>
@@ -7028,8 +9305,20 @@
       <c r="K171" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L171" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M171" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N171" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A172" s="4" t="s">
         <v>126</v>
       </c>
@@ -7063,8 +9352,20 @@
       <c r="K172" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L172" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M172" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N172" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A173" s="4" t="s">
         <v>126</v>
       </c>
@@ -7098,8 +9399,20 @@
       <c r="K173" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L173" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M173" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N173" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A174" s="4" t="s">
         <v>126</v>
       </c>
@@ -7133,8 +9446,20 @@
       <c r="K174" s="5">
         <v>168920</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L174" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M174" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N174" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A175" s="4" t="s">
         <v>126</v>
       </c>
@@ -7168,8 +9493,20 @@
       <c r="K175" s="5">
         <v>168920</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L175" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M175" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N175" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A176" s="4" t="s">
         <v>126</v>
       </c>
@@ -7203,8 +9540,20 @@
       <c r="K176" s="5">
         <v>168920</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L176" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M176" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N176" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A177" s="4" t="s">
         <v>126</v>
       </c>
@@ -7238,8 +9587,20 @@
       <c r="K177" s="5">
         <v>173110</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L177" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M177" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N177" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A178" s="4" t="s">
         <v>126</v>
       </c>
@@ -7273,8 +9634,20 @@
       <c r="K178" s="5">
         <v>173110</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L178" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M178" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N178" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A179" s="4" t="s">
         <v>126</v>
       </c>
@@ -7308,8 +9681,20 @@
       <c r="K179" s="5">
         <v>173110</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L179" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M179" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N179" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A180" s="4" t="s">
         <v>126</v>
       </c>
@@ -7343,8 +9728,20 @@
       <c r="K180" s="5">
         <v>173110</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L180" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M180" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N180" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A181" s="4" t="s">
         <v>126</v>
       </c>
@@ -7378,8 +9775,20 @@
       <c r="K181" s="5">
         <v>173110</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L181" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M181" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N181" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A182" s="4" t="s">
         <v>126</v>
       </c>
@@ -7413,8 +9822,20 @@
       <c r="K182" s="5">
         <v>173110</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L182" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M182" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N182" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A183" s="4" t="s">
         <v>126</v>
       </c>
@@ -7448,8 +9869,20 @@
       <c r="K183" s="5">
         <v>173110</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L183" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M183" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N183" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A184" s="4" t="s">
         <v>126</v>
       </c>
@@ -7483,8 +9916,20 @@
       <c r="K184" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L184" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M184" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N184" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A185" s="4" t="s">
         <v>126</v>
       </c>
@@ -7518,8 +9963,20 @@
       <c r="K185" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L185" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M185" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N185" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A186" s="4" t="s">
         <v>126</v>
       </c>
@@ -7553,8 +10010,20 @@
       <c r="K186" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L186" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M186" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N186" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A187" s="4" t="s">
         <v>126</v>
       </c>
@@ -7588,8 +10057,20 @@
       <c r="K187" s="5">
         <v>168920</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L187" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M187" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N187" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A188" s="4" t="s">
         <v>126</v>
       </c>
@@ -7623,8 +10104,20 @@
       <c r="K188" s="5">
         <v>168920</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L188" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M188" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N188" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A189" s="4" t="s">
         <v>126</v>
       </c>
@@ -7658,8 +10151,20 @@
       <c r="K189" s="5">
         <v>168920</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L189" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M189" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N189" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A190" s="4" t="s">
         <v>126</v>
       </c>
@@ -7693,8 +10198,20 @@
       <c r="K190" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L190" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M190" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N190" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A191" s="4" t="s">
         <v>126</v>
       </c>
@@ -7728,8 +10245,20 @@
       <c r="K191" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L191" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M191" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N191" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A192" s="4" t="s">
         <v>126</v>
       </c>
@@ -7763,8 +10292,20 @@
       <c r="K192" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L192" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M192" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N192" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A193" s="4" t="s">
         <v>126</v>
       </c>
@@ -7798,8 +10339,20 @@
       <c r="K193" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L193" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M193" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N193" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A194" s="4" t="s">
         <v>126</v>
       </c>
@@ -7833,8 +10386,20 @@
       <c r="K194" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L194" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M194" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N194" s="31">
+        <f t="shared" si="2"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A195" s="4" t="s">
         <v>126</v>
       </c>
@@ -7868,8 +10433,20 @@
       <c r="K195" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L195" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M195" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N195" s="31">
+        <f t="shared" ref="N195:N258" si="3">M195/L195</f>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A196" s="4" t="s">
         <v>126</v>
       </c>
@@ -7903,8 +10480,20 @@
       <c r="K196" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L196" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M196" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N196" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A197" s="4" t="s">
         <v>126</v>
       </c>
@@ -7938,8 +10527,20 @@
       <c r="K197" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L197" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M197" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N197" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A198" s="4" t="s">
         <v>126</v>
       </c>
@@ -7973,8 +10574,20 @@
       <c r="K198" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L198" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M198" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N198" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A199" s="4" t="s">
         <v>126</v>
       </c>
@@ -8008,8 +10621,20 @@
       <c r="K199" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L199" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M199" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N199" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A200" s="4" t="s">
         <v>126</v>
       </c>
@@ -8043,8 +10668,20 @@
       <c r="K200" s="5">
         <v>170630</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L200" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M200" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N200" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A201" s="4" t="s">
         <v>126</v>
       </c>
@@ -8078,8 +10715,20 @@
       <c r="K201" s="5">
         <v>170630</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L201" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M201" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N201" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A202" s="4" t="s">
         <v>126</v>
       </c>
@@ -8113,8 +10762,20 @@
       <c r="K202" s="5">
         <v>170630</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L202" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M202" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N202" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A203" s="4" t="s">
         <v>126</v>
       </c>
@@ -8148,8 +10809,20 @@
       <c r="K203" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L203" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M203" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N203" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A204" s="4" t="s">
         <v>126</v>
       </c>
@@ -8183,8 +10856,20 @@
       <c r="K204" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L204" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M204" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N204" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A205" s="4" t="s">
         <v>126</v>
       </c>
@@ -8218,8 +10903,20 @@
       <c r="K205" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L205" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M205" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N205" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A206" s="4" t="s">
         <v>126</v>
       </c>
@@ -8253,8 +10950,20 @@
       <c r="K206" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L206" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M206" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N206" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A207" s="4" t="s">
         <v>126</v>
       </c>
@@ -8288,8 +10997,20 @@
       <c r="K207" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L207" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M207" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N207" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A208" s="4" t="s">
         <v>126</v>
       </c>
@@ -8323,8 +11044,20 @@
       <c r="K208" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L208" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M208" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N208" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A209" s="4" t="s">
         <v>126</v>
       </c>
@@ -8358,8 +11091,20 @@
       <c r="K209" s="5">
         <v>174950</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L209" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M209" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N209" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A210" s="4" t="s">
         <v>126</v>
       </c>
@@ -8393,8 +11138,20 @@
       <c r="K210" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L210" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M210" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N210" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A211" s="4" t="s">
         <v>126</v>
       </c>
@@ -8428,8 +11185,20 @@
       <c r="K211" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L211" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M211" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N211" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A212" s="4" t="s">
         <v>126</v>
       </c>
@@ -8463,8 +11232,20 @@
       <c r="K212" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L212" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M212" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N212" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A213" s="4" t="s">
         <v>126</v>
       </c>
@@ -8498,8 +11279,20 @@
       <c r="K213" s="5">
         <v>170630</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L213" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M213" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N213" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A214" s="4" t="s">
         <v>126</v>
       </c>
@@ -8533,8 +11326,20 @@
       <c r="K214" s="5">
         <v>170630</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L214" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M214" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N214" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A215" s="4" t="s">
         <v>126</v>
       </c>
@@ -8568,8 +11373,20 @@
       <c r="K215" s="5">
         <v>170630</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L215" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M215" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N215" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A216" s="4" t="s">
         <v>126</v>
       </c>
@@ -8603,8 +11420,20 @@
       <c r="K216" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L216" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M216" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N216" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A217" s="4" t="s">
         <v>126</v>
       </c>
@@ -8638,8 +11467,20 @@
       <c r="K217" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L217" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M217" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N217" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A218" s="4" t="s">
         <v>126</v>
       </c>
@@ -8673,8 +11514,20 @@
       <c r="K218" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L218" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M218" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N218" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A219" s="4" t="s">
         <v>126</v>
       </c>
@@ -8708,8 +11561,20 @@
       <c r="K219" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L219" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M219" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N219" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A220" s="4" t="s">
         <v>126</v>
       </c>
@@ -8743,8 +11608,20 @@
       <c r="K220" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L220" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M220" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N220" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A221" s="4" t="s">
         <v>126</v>
       </c>
@@ -8778,8 +11655,20 @@
       <c r="K221" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L221" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M221" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N221" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A222" s="4" t="s">
         <v>126</v>
       </c>
@@ -8813,8 +11702,20 @@
       <c r="K222" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L222" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M222" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N222" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A223" s="4" t="s">
         <v>126</v>
       </c>
@@ -8848,8 +11749,20 @@
       <c r="K223" s="5">
         <v>178660</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L223" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M223" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N223" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A224" s="4" t="s">
         <v>126</v>
       </c>
@@ -8883,8 +11796,20 @@
       <c r="K224" s="5">
         <v>178660</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L224" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M224" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N224" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A225" s="4" t="s">
         <v>126</v>
       </c>
@@ -8918,8 +11843,20 @@
       <c r="K225" s="5">
         <v>178660</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L225" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M225" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N225" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A226" s="4" t="s">
         <v>126</v>
       </c>
@@ -8953,8 +11890,20 @@
       <c r="K226" s="5">
         <v>172420</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L226" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M226" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N226" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A227" s="4" t="s">
         <v>126</v>
       </c>
@@ -8988,8 +11937,20 @@
       <c r="K227" s="5">
         <v>172420</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L227" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M227" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N227" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A228" s="4" t="s">
         <v>126</v>
       </c>
@@ -9023,8 +11984,20 @@
       <c r="K228" s="5">
         <v>172420</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L228" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M228" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N228" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A229" s="4" t="s">
         <v>126</v>
       </c>
@@ -9058,8 +12031,20 @@
       <c r="K229" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L229" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M229" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N229" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A230" s="4" t="s">
         <v>126</v>
       </c>
@@ -9093,8 +12078,20 @@
       <c r="K230" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L230" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M230" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N230" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A231" s="4" t="s">
         <v>126</v>
       </c>
@@ -9128,8 +12125,20 @@
       <c r="K231" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L231" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M231" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N231" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A232" s="4" t="s">
         <v>126</v>
       </c>
@@ -9163,8 +12172,20 @@
       <c r="K232" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L232" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M232" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N232" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A233" s="4" t="s">
         <v>126</v>
       </c>
@@ -9198,8 +12219,20 @@
       <c r="K233" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L233" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M233" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N233" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A234" s="4" t="s">
         <v>126</v>
       </c>
@@ -9233,8 +12266,20 @@
       <c r="K234" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L234" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M234" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N234" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A235" s="4" t="s">
         <v>126</v>
       </c>
@@ -9268,8 +12313,20 @@
       <c r="K235" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L235" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M235" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N235" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A236" s="4" t="s">
         <v>126</v>
       </c>
@@ -9303,8 +12360,20 @@
       <c r="K236" s="5">
         <v>178660</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L236" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M236" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N236" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A237" s="4" t="s">
         <v>126</v>
       </c>
@@ -9338,8 +12407,20 @@
       <c r="K237" s="5">
         <v>178660</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L237" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M237" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N237" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A238" s="4" t="s">
         <v>126</v>
       </c>
@@ -9373,8 +12454,20 @@
       <c r="K238" s="5">
         <v>178660</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L238" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M238" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N238" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A239" s="4" t="s">
         <v>126</v>
       </c>
@@ -9408,8 +12501,20 @@
       <c r="K239" s="5">
         <v>172420</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L239" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M239" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N239" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A240" s="4" t="s">
         <v>126</v>
       </c>
@@ -9443,8 +12548,20 @@
       <c r="K240" s="5">
         <v>172420</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L240" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M240" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N240" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A241" s="4" t="s">
         <v>126</v>
       </c>
@@ -9478,8 +12595,20 @@
       <c r="K241" s="5">
         <v>172380</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L241" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M241" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N241" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A242" s="4" t="s">
         <v>126</v>
       </c>
@@ -9513,8 +12642,20 @@
       <c r="K242" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L242" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M242" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N242" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A243" s="4" t="s">
         <v>126</v>
       </c>
@@ -9548,8 +12689,20 @@
       <c r="K243" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L243" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M243" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N243" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A244" s="4" t="s">
         <v>126</v>
       </c>
@@ -9583,8 +12736,20 @@
       <c r="K244" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L244" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M244" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N244" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A245" s="4" t="s">
         <v>126</v>
       </c>
@@ -9618,8 +12783,20 @@
       <c r="K245" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L245" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M245" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N245" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A246" s="4" t="s">
         <v>126</v>
       </c>
@@ -9653,8 +12830,20 @@
       <c r="K246" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L246" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M246" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N246" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A247" s="4" t="s">
         <v>126</v>
       </c>
@@ -9688,8 +12877,20 @@
       <c r="K247" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L247" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M247" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N247" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A248" s="4" t="s">
         <v>126</v>
       </c>
@@ -9723,8 +12924,20 @@
       <c r="K248" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L248" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M248" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N248" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A249" s="4" t="s">
         <v>126</v>
       </c>
@@ -9758,8 +12971,20 @@
       <c r="K249" s="5">
         <v>187150</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L249" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M249" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N249" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A250" s="4" t="s">
         <v>126</v>
       </c>
@@ -9793,8 +13018,20 @@
       <c r="K250" s="5">
         <v>187150</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L250" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M250" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N250" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A251" s="4" t="s">
         <v>126</v>
       </c>
@@ -9828,8 +13065,20 @@
       <c r="K251" s="5">
         <v>172420</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L251" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M251" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N251" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A252" s="4" t="s">
         <v>126</v>
       </c>
@@ -9863,8 +13112,20 @@
       <c r="K252" s="5">
         <v>172420</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L252" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M252" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N252" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A253" s="4" t="s">
         <v>126</v>
       </c>
@@ -9898,8 +13159,20 @@
       <c r="K253" s="5">
         <v>172420</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L253" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M253" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N253" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A254" s="4" t="s">
         <v>126</v>
       </c>
@@ -9933,8 +13206,20 @@
       <c r="K254" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L254" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M254" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N254" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A255" s="4" t="s">
         <v>126</v>
       </c>
@@ -9968,8 +13253,20 @@
       <c r="K255" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L255" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M255" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N255" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A256" s="4" t="s">
         <v>126</v>
       </c>
@@ -10003,8 +13300,20 @@
       <c r="K256" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L256" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M256" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N256" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A257" s="4" t="s">
         <v>126</v>
       </c>
@@ -10038,8 +13347,20 @@
       <c r="K257" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L257" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M257" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N257" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A258" s="4" t="s">
         <v>126</v>
       </c>
@@ -10073,8 +13394,20 @@
       <c r="K258" s="5">
         <v>176820</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L258" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M258" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N258" s="31">
+        <f t="shared" si="3"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A259" s="4" t="s">
         <v>126</v>
       </c>
@@ -10108,8 +13441,20 @@
       <c r="K259" s="5">
         <v>172420</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L259" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M259" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N259" s="31">
+        <f t="shared" ref="N259:N267" si="4">M259/L259</f>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A260" s="4" t="s">
         <v>126</v>
       </c>
@@ -10143,8 +13488,20 @@
       <c r="K260" s="5">
         <v>172420</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L260" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M260" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N260" s="31">
+        <f t="shared" si="4"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A261" s="4" t="s">
         <v>126</v>
       </c>
@@ -10178,8 +13535,20 @@
       <c r="K261" s="5">
         <v>172420</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L261" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>200</v>
+      </c>
+      <c r="M261" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>5714</v>
+      </c>
+      <c r="N261" s="31">
+        <f t="shared" si="4"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A262" s="4" t="s">
         <v>19</v>
       </c>
@@ -10213,8 +13582,20 @@
       <c r="K262" s="5">
         <v>395400</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L262" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M262" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>482</v>
+      </c>
+      <c r="N262" s="31">
+        <f t="shared" si="4"/>
+        <v>160.66666666666666</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A263" s="4" t="s">
         <v>105</v>
       </c>
@@ -10248,8 +13629,20 @@
       <c r="K263" s="5">
         <v>253570</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L263" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M263" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>449</v>
+      </c>
+      <c r="N263" s="31">
+        <f t="shared" si="4"/>
+        <v>74.833333333333329</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A264" s="4" t="s">
         <v>105</v>
       </c>
@@ -10283,8 +13676,20 @@
       <c r="K264" s="5">
         <v>250540</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L264" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="M264" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>449</v>
+      </c>
+      <c r="N264" s="31">
+        <f t="shared" si="4"/>
+        <v>74.833333333333329</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A265" s="4" t="s">
         <v>106</v>
       </c>
@@ -10318,8 +13723,18 @@
       <c r="K265" s="5">
         <v>122750</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="L265" s="10">
+        <v>3</v>
+      </c>
+      <c r="M265" s="10">
+        <v>104</v>
+      </c>
+      <c r="N265" s="31">
+        <f t="shared" si="4"/>
+        <v>34.666666666666664</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" s="10" customFormat="1" ht="19.5" customHeight="1">
       <c r="A266" s="4" t="s">
         <v>107</v>
       </c>
@@ -10353,12 +13768,27 @@
       <c r="K266" s="5">
         <v>97760</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" ht="19.5" customHeight="1">
+      <c r="L266" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M266" s="10">
+        <f>VLOOKUP($A$2:$A$266,Sheet1!$B$1:$H$48,7,0)</f>
+        <v>62</v>
+      </c>
+      <c r="N266" s="31">
+        <f t="shared" si="4"/>
+        <v>20.666666666666668</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" ht="19.5" customHeight="1">
       <c r="C267" s="21"/>
       <c r="F267" s="15"/>
       <c r="H267" s="9"/>
       <c r="I267" s="9"/>
+      <c r="L267" s="10"/>
+      <c r="M267" s="10"/>
+      <c r="N267" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K267"/>
@@ -10366,4 +13796,1278 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A1" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="25">
+        <v>1</v>
+      </c>
+      <c r="G1" s="25">
+        <v>3</v>
+      </c>
+      <c r="H1" s="25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A2" s="28"/>
+      <c r="B2" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="25">
+        <v>1</v>
+      </c>
+      <c r="G2" s="25">
+        <v>3</v>
+      </c>
+      <c r="H2" s="25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="25">
+        <v>1</v>
+      </c>
+      <c r="G3" s="25">
+        <v>3</v>
+      </c>
+      <c r="H3" s="25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A4" s="28"/>
+      <c r="B4" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="25">
+        <v>4</v>
+      </c>
+      <c r="G4" s="25">
+        <v>12</v>
+      </c>
+      <c r="H4" s="25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="83.25" thickBot="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="25">
+        <v>1</v>
+      </c>
+      <c r="G5" s="25">
+        <v>3</v>
+      </c>
+      <c r="H5" s="25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A6" s="28"/>
+      <c r="B6" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="25">
+        <v>4</v>
+      </c>
+      <c r="G6" s="25">
+        <v>12</v>
+      </c>
+      <c r="H6" s="25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="25">
+        <v>4</v>
+      </c>
+      <c r="G7" s="25">
+        <v>12</v>
+      </c>
+      <c r="H7" s="25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A8" s="28"/>
+      <c r="B8" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="25">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25">
+        <v>3</v>
+      </c>
+      <c r="H8" s="25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="25">
+        <v>1</v>
+      </c>
+      <c r="G9" s="25">
+        <v>3</v>
+      </c>
+      <c r="H9" s="25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A10" s="28"/>
+      <c r="B10" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="25">
+        <v>2</v>
+      </c>
+      <c r="G10" s="25">
+        <v>6</v>
+      </c>
+      <c r="H10" s="25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A11" s="28"/>
+      <c r="B11" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="25">
+        <v>2</v>
+      </c>
+      <c r="G11" s="25">
+        <v>6</v>
+      </c>
+      <c r="H11" s="25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A12" s="28"/>
+      <c r="B12" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="25">
+        <v>4</v>
+      </c>
+      <c r="G12" s="25">
+        <v>12</v>
+      </c>
+      <c r="H12" s="25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A13" s="28"/>
+      <c r="B13" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="25">
+        <v>5</v>
+      </c>
+      <c r="G13" s="25">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A14" s="28"/>
+      <c r="B14" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
+      <c r="G14" s="25">
+        <v>3</v>
+      </c>
+      <c r="H14" s="25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A15" s="28"/>
+      <c r="B15" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="25">
+        <v>1</v>
+      </c>
+      <c r="G15" s="25">
+        <v>3</v>
+      </c>
+      <c r="H15" s="25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A16" s="28"/>
+      <c r="B16" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="25">
+        <v>2</v>
+      </c>
+      <c r="G16" s="25">
+        <v>6</v>
+      </c>
+      <c r="H16" s="25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A17" s="28"/>
+      <c r="B17" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="25">
+        <v>2</v>
+      </c>
+      <c r="G17" s="25">
+        <v>6</v>
+      </c>
+      <c r="H17" s="25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A18" s="28"/>
+      <c r="B18" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="25">
+        <v>4</v>
+      </c>
+      <c r="G18" s="25">
+        <v>12</v>
+      </c>
+      <c r="H18" s="25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A19" s="28"/>
+      <c r="B19" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="25">
+        <v>4</v>
+      </c>
+      <c r="G19" s="25">
+        <v>12</v>
+      </c>
+      <c r="H19" s="25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A20" s="28"/>
+      <c r="B20" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="25">
+        <v>1</v>
+      </c>
+      <c r="G20" s="25">
+        <v>3</v>
+      </c>
+      <c r="H20" s="25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A21" s="28"/>
+      <c r="B21" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="25">
+        <v>1</v>
+      </c>
+      <c r="G21" s="25">
+        <v>3</v>
+      </c>
+      <c r="H21" s="25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A22" s="28"/>
+      <c r="B22" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="25">
+        <v>1</v>
+      </c>
+      <c r="G22" s="25">
+        <v>3</v>
+      </c>
+      <c r="H22" s="25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A23" s="28"/>
+      <c r="B23" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="25">
+        <v>1</v>
+      </c>
+      <c r="G23" s="25">
+        <v>3</v>
+      </c>
+      <c r="H23" s="25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A24" s="28"/>
+      <c r="B24" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="25">
+        <v>2</v>
+      </c>
+      <c r="G24" s="25">
+        <v>6</v>
+      </c>
+      <c r="H24" s="25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A25" s="28"/>
+      <c r="B25" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="25">
+        <v>3</v>
+      </c>
+      <c r="H25" s="25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A26" s="28"/>
+      <c r="B26" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="25">
+        <v>1</v>
+      </c>
+      <c r="G26" s="25">
+        <v>3</v>
+      </c>
+      <c r="H26" s="25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A27" s="28"/>
+      <c r="B27" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F27" s="25">
+        <v>2</v>
+      </c>
+      <c r="G27" s="25">
+        <v>6</v>
+      </c>
+      <c r="H27" s="25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A28" s="28"/>
+      <c r="B28" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="25">
+        <v>2</v>
+      </c>
+      <c r="G28" s="25">
+        <v>6</v>
+      </c>
+      <c r="H28" s="27">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A29" s="28"/>
+      <c r="B29" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="25">
+        <v>1</v>
+      </c>
+      <c r="G29" s="25">
+        <v>3</v>
+      </c>
+      <c r="H29" s="25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A30" s="28"/>
+      <c r="B30" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="25">
+        <v>1</v>
+      </c>
+      <c r="G30" s="25">
+        <v>3</v>
+      </c>
+      <c r="H30" s="25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A31" s="28"/>
+      <c r="B31" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="25">
+        <v>4</v>
+      </c>
+      <c r="G31" s="25">
+        <v>12</v>
+      </c>
+      <c r="H31" s="27">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A32" s="28"/>
+      <c r="B32" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="25">
+        <v>5</v>
+      </c>
+      <c r="G32" s="25">
+        <v>15</v>
+      </c>
+      <c r="H32" s="25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A33" s="28"/>
+      <c r="B33" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="25">
+        <v>2</v>
+      </c>
+      <c r="G33" s="25">
+        <v>6</v>
+      </c>
+      <c r="H33" s="25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="83.25" thickBot="1">
+      <c r="A34" s="28"/>
+      <c r="B34" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="25">
+        <v>2</v>
+      </c>
+      <c r="G34" s="25">
+        <v>6</v>
+      </c>
+      <c r="H34" s="25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="83.25" thickBot="1">
+      <c r="A35" s="28"/>
+      <c r="B35" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="25">
+        <v>2</v>
+      </c>
+      <c r="G35" s="25">
+        <v>6</v>
+      </c>
+      <c r="H35" s="25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="83.25" thickBot="1">
+      <c r="A36" s="28"/>
+      <c r="B36" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="25">
+        <v>3</v>
+      </c>
+      <c r="G36" s="25">
+        <v>9</v>
+      </c>
+      <c r="H36" s="27">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A37" s="28"/>
+      <c r="B37" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="25">
+        <v>4</v>
+      </c>
+      <c r="G37" s="25">
+        <v>12</v>
+      </c>
+      <c r="H37" s="25">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="83.25" thickBot="1">
+      <c r="A38" s="28"/>
+      <c r="B38" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" s="25">
+        <v>135</v>
+      </c>
+      <c r="G38" s="25">
+        <v>200</v>
+      </c>
+      <c r="H38" s="27">
+        <v>5714</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A39" s="28"/>
+      <c r="B39" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="25">
+        <v>1</v>
+      </c>
+      <c r="G39" s="25">
+        <v>3</v>
+      </c>
+      <c r="H39" s="25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="33.75" thickBot="1">
+      <c r="A40" s="28"/>
+      <c r="B40" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" s="25">
+        <v>3</v>
+      </c>
+      <c r="G40" s="25">
+        <v>9</v>
+      </c>
+      <c r="H40" s="25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A41" s="28"/>
+      <c r="B41" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="25">
+        <v>1</v>
+      </c>
+      <c r="G41" s="25">
+        <v>3</v>
+      </c>
+      <c r="H41" s="25">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A42" s="28"/>
+      <c r="B42" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="25">
+        <v>13</v>
+      </c>
+      <c r="G42" s="25">
+        <v>26</v>
+      </c>
+      <c r="H42" s="27">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A43" s="28"/>
+      <c r="B43" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="25">
+        <v>11</v>
+      </c>
+      <c r="G43" s="25">
+        <v>22</v>
+      </c>
+      <c r="H43" s="27">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A44" s="28"/>
+      <c r="B44" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="25">
+        <v>15</v>
+      </c>
+      <c r="G44" s="25">
+        <v>30</v>
+      </c>
+      <c r="H44" s="27">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A45" s="28"/>
+      <c r="B45" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="25">
+        <v>1</v>
+      </c>
+      <c r="G45" s="25">
+        <v>3</v>
+      </c>
+      <c r="H45" s="25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="66.75" thickBot="1">
+      <c r="A46" s="29"/>
+      <c r="B46" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" s="25">
+        <v>2</v>
+      </c>
+      <c r="G46" s="25">
+        <v>6</v>
+      </c>
+      <c r="H46" s="25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A47" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="25">
+        <v>1</v>
+      </c>
+      <c r="G47" s="25">
+        <v>3</v>
+      </c>
+      <c r="H47" s="25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="50.25" thickBot="1">
+      <c r="A48" s="29"/>
+      <c r="B48" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="25">
+        <v>1</v>
+      </c>
+      <c r="G48" s="25">
+        <v>3</v>
+      </c>
+      <c r="H48" s="25">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A46"/>
+    <mergeCell ref="A47:A48"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" display="javascript:mapPop('37.5719084','','%EC%A2%85%EB%A1%9C%EC%88%AD%EC%9D%B8%EB%8F%99(%EC%8B%9C%ED%8B%B0%ED%94%8C%EB%9F%AC%EC%8A%A4)','P111100013','P11110');"/>
+    <hyperlink ref="D1" r:id="rId2" display="javascript:ahflPop('2','P11110','','P111100013');"/>
+    <hyperlink ref="C2" r:id="rId3" display="javascript:mapPop('','','%EA%B4%91%EC%A7%84%EC%A4%91%EA%B3%A1%EB%8F%99(%EC%82%BC%ED%99%94%EC%97%90%EC%BD%94%EB%B9%8C)','P112150003','P11215');"/>
+    <hyperlink ref="D2" r:id="rId4" display="javascript:ahflPop('0','P11215','','P112150003');"/>
+    <hyperlink ref="C3" r:id="rId5" display="javascript:mapPop('37.5649273','','%EA%B4%91%EC%A7%84%EC%A4%91%EA%B3%A1%EB%8F%99(%EC%A0%9C%EC%9D%B4%EC%95%A4%EB%B9%8C)','P112150019','P11215');"/>
+    <hyperlink ref="D3" r:id="rId6" display="javascript:ahflPop('2','P11215','','P112150019');"/>
+    <hyperlink ref="C4" r:id="rId7" display="javascript:mapPop('37.5584165','','%EA%B4%91%EC%A7%84%EC%A4%91%EA%B3%A1%EB%8F%99(%EC%99%80%EC%9D%B4%EC%9C%84%EB%93%9C%EB%AF%B8)','P112150020','P11215');"/>
+    <hyperlink ref="D4" r:id="rId8" display="javascript:ahflPop('2','P11215','','P112150020');"/>
+    <hyperlink ref="C5" r:id="rId9" display="javascript:mapPop('37.5623247','','%EB%8F%99%EB%8C%80%EB%AC%B8%EC%9E%A5%EC%95%88%EB%8F%99(%EC%97%90%EC%8A%A4%EC%95%84%EC%9D%B4%ED%8C%B0%EB%A6%AC%EC%8A%A4)','P112300023','P11230');"/>
+    <hyperlink ref="D5" r:id="rId10" display="javascript:ahflPop('2','P11230','','P112300023');"/>
+    <hyperlink ref="C6" r:id="rId11" display="javascript:mapPop('','','%EB%8F%99%EB%8C%80%EB%AC%B8%EC%9E%A5%EC%95%88%EB%8F%99(%EC%A7%84%EC%84%B1%ED%99%88%ED%83%80%EC%9A%B4)','P112300024','P11230');"/>
+    <hyperlink ref="D6" r:id="rId12" display="javascript:ahflPop('0','P11230','','P112300024');"/>
+    <hyperlink ref="C7" r:id="rId13" display="javascript:mapPop('37.5896872','','%EB%8F%99%EB%8C%80%EB%AC%B8%ED%9A%8C%EA%B8%B0%EB%8F%99(%EB%84%A4%EC%8A%A4%ED%8A%B8%EC%8A%A4%EC%9C%84%ED%8A%B8)','P112300018','P11230');"/>
+    <hyperlink ref="D7" r:id="rId14" display="javascript:ahflPop('2','P11230','','P112300018');"/>
+    <hyperlink ref="C8" r:id="rId15" display="javascript:mapPop('','','%EC%A4%91%EB%9E%91%EB%A7%9D%EC%9A%B0%EB%8F%99(%EC%9C%84%EC%84%B1%ED%9E%90%ED%95%98%EC%9A%B0%EC%8A%A4)','P112600038','P11260');"/>
+    <hyperlink ref="D8" r:id="rId16" display="javascript:ahflPop('0','P11260','','P112600038');"/>
+    <hyperlink ref="C9" r:id="rId17" display="javascript:mapPop('37.5937259','','%EC%A4%91%EB%9E%91%EC%83%81%EB%B4%89%EB%8F%99(%EC%B2%AD%EC%9A%B4%EB%AA%85%EA%B0%80%ED%94%84%EB%9D%BC%EC%9E%84)','P112600041','P11260');"/>
+    <hyperlink ref="D9" r:id="rId18" display="javascript:ahflPop('3','P11260','','P112600041');"/>
+    <hyperlink ref="C10" r:id="rId19" display="javascript:mapPop('','','%EC%A4%91%EB%9E%91%EB%A7%9D%EC%9A%B0%EB%8F%99(%EB%B9%8C%EB%93%9C%EC%95%84%EB%A5%B4%EB%96%BC)','P112600037','P11260');"/>
+    <hyperlink ref="D10" r:id="rId20" display="javascript:ahflPop('0','P11260','','P112600037');"/>
+    <hyperlink ref="C11" r:id="rId21" display="javascript:mapPop('','','%EC%A4%91%EB%9E%91%EB%A9%B4%EB%AA%A9%EB%8F%99(%ED%9E%90%ED%95%98%EC%9A%B0%EC%8A%A4)','P112600039','P11260');"/>
+    <hyperlink ref="D11" r:id="rId22" display="javascript:ahflPop('0','P11260','','P112600039');"/>
+    <hyperlink ref="C12" r:id="rId23" display="javascript:mapPop('','','%EC%A4%91%EB%9E%91%EC%A4%91%ED%99%94%EB%8F%99(%EC%A3%BC%ED%95%A8%ED%95%B4%EB%B8%90%EB%B9%8C)','P112600042','P11260');"/>
+    <hyperlink ref="D12" r:id="rId24" display="javascript:ahflPop('0','P11260','','P112600042');"/>
+    <hyperlink ref="C13" r:id="rId25" display="javascript:mapPop('','','%EC%A4%91%EB%9E%91%EB%AC%B5%EB%8F%99(%EA%B7%B8%EB%A6%B0%EC%BA%90%EC%8A%AC1%EC%B0%A8)','P112600040','P11260');"/>
+    <hyperlink ref="D13" r:id="rId26" display="javascript:ahflPop('0','P11260','','P112600040');"/>
+    <hyperlink ref="C14" r:id="rId27" display="javascript:mapPop('','','%EC%84%B1%EB%B6%81%EC%84%9D%EA%B4%80%EB%8F%99(%EB%8B%A4%EC%9A%B0%EC%95%84%ED%8A%B8%EB%B9%8C)','P112900028','P11290');"/>
+    <hyperlink ref="D14" r:id="rId28" display="javascript:ahflPop('0','P11290','','P112900028');"/>
+    <hyperlink ref="C15" r:id="rId29" display="javascript:mapPop('','','%EC%84%B1%EB%B6%81%EC%9E%A5%EC%9C%84%EB%8F%99','P112900018','P11290');"/>
+    <hyperlink ref="D15" r:id="rId30" display="javascript:ahflPop('0','P11290','','P112900018');"/>
+    <hyperlink ref="C16" r:id="rId31" display="javascript:mapPop('','','%EC%84%B1%EB%B6%81%EC%9E%A5%EC%9C%84%EB%8F%99(%EC%8B%9C%EC%98%A8%EC%95%84%ED%8A%B8%EB%B9%8C)','P112900030','P11290');"/>
+    <hyperlink ref="D16" r:id="rId32" display="javascript:ahflPop('0','P11290','','P112900030');"/>
+    <hyperlink ref="C17" r:id="rId33" display="javascript:mapPop('','','%EC%84%B1%EB%B6%81%EC%A0%95%EB%A6%89%EB%8F%99(%ED%98%95%EC%A7%80%EB%A6%AC%EB%B2%84%EB%B9%8C)','P112900031','P11290');"/>
+    <hyperlink ref="D17" r:id="rId34" display="javascript:ahflPop('0','P11290','','P112900031');"/>
+    <hyperlink ref="C18" r:id="rId35" display="javascript:mapPop('37.6052804','','%EC%84%B1%EB%B6%81%EC%84%9D%EA%B4%80%EB%8F%99(%EB%8B%A4%EC%9B%90%EC%BA%90%EC%8A%AC)','P112900029','P11290');"/>
+    <hyperlink ref="D18" r:id="rId36" display="javascript:ahflPop('2','P11290','','P112900029');"/>
+    <hyperlink ref="C19" r:id="rId37" display="javascript:mapPop('','','%EC%84%B1%EB%B6%81%EC%A2%85%EC%95%94%EB%8F%99(%ED%95%B4%EB%B0%80%ED%95%98%EC%9A%B0%EC%8A%A4)','P112900017','P11290');"/>
+    <hyperlink ref="D19" r:id="rId38" display="javascript:ahflPop('0','P11290','','P112900017');"/>
+    <hyperlink ref="C20" r:id="rId39" display="javascript:mapPop('','','%EA%B0%95%EB%B6%81%EB%AF%B8%EC%95%84%EB%8F%99','P113050024','P11305');"/>
+    <hyperlink ref="D20" r:id="rId40" display="javascript:ahflPop('0','P11305','','P113050024');"/>
+    <hyperlink ref="C21" r:id="rId41" display="javascript:mapPop('37.6324120','','%EA%B0%95%EB%B6%81%EB%AF%B8%EC%95%84%EB%8F%99(%EC%B2%AD%EC%9A%B4%EB%AF%B8%EA%B0%80)','P113050023','P11305');"/>
+    <hyperlink ref="D21" r:id="rId42" display="javascript:ahflPop('2','P11305','','P113050023');"/>
+    <hyperlink ref="C22" r:id="rId43" display="javascript:mapPop('','','%EA%B0%95%EB%B6%81%EC%88%98%EC%9C%A0%EB%8F%99(%EC%9D%80%ED%96%89%EB%B9%8C%EB%9D%BC)','P113050022','P11305');"/>
+    <hyperlink ref="D22" r:id="rId44" display="javascript:ahflPop('0','P11305','','P113050022');"/>
+    <hyperlink ref="C23" r:id="rId45" display="javascript:mapPop('','','%EB%8F%84%EB%B4%89%EC%B0%BD%EB%8F%99','P113200019','P11320');"/>
+    <hyperlink ref="D23" r:id="rId46" display="javascript:ahflPop('0','P11320','','P113200019');"/>
+    <hyperlink ref="C24" r:id="rId47" display="javascript:mapPop('','','%EB%8F%84%EB%B4%89%EB%8F%84%EB%B4%89%EB%8F%99(%ED%97%88%EB%B8%8C%EB%B9%8C)','P113200026','P11320');"/>
+    <hyperlink ref="D24" r:id="rId48" display="javascript:ahflPop('0','P11320','','P113200026');"/>
+    <hyperlink ref="C25" r:id="rId49" display="javascript:mapPop('','','%EB%85%B8%EC%9B%90%EC%83%81%EA%B3%84%EB%8F%99','P113500017','P11350');"/>
+    <hyperlink ref="D25" r:id="rId50" display="javascript:ahflPop('0','P11350','','P113500017');"/>
+    <hyperlink ref="C26" r:id="rId51" display="javascript:mapPop('','','%EB%85%B8%EC%9B%90%EC%9B%94%EA%B3%84%EB%8F%99(%EB%9D%BC%EC%9D%B8%EB%B9%8C)','P113500022','P11350');"/>
+    <hyperlink ref="D26" r:id="rId52" display="javascript:ahflPop('0','P11350','','P113500022');"/>
+    <hyperlink ref="C27" r:id="rId53" display="javascript:mapPop('','','%EC%9D%80%ED%8F%89%EB%8C%80%EC%A1%B0%EB%8F%99(%EC%B4%88%EC%9B%90%EA%B7%B8%EB%A6%B0%EB%B9%8C)','P113800027','P11380');"/>
+    <hyperlink ref="D27" r:id="rId54" display="javascript:ahflPop('0','P11380','','P113800027');"/>
+    <hyperlink ref="C28" r:id="rId55" display="javascript:mapPop('37.5487890','','%EB%A7%88%ED%8F%AC%EA%B3%B5%EB%8D%95%EB%8F%99(%EA%B3%B5%EB%8D%95%ED%97%A4%EB%A6%AC%EC%A7%80%EC%9B%80)','P114400008','P11440');"/>
+    <hyperlink ref="D28" r:id="rId56" display="javascript:ahflPop('5','P11440','','P114400008');"/>
+    <hyperlink ref="C29" r:id="rId57" display="javascript:mapPop('37.5356647','','%EC%96%91%EC%B2%9C%EC%8B%A0%EC%9B%94%EB%8F%991','P114700008','P11470');"/>
+    <hyperlink ref="D29" r:id="rId58" display="javascript:ahflPop('1','P11470','','P114700008');"/>
+    <hyperlink ref="C30" r:id="rId59" display="javascript:mapPop('','','%EA%B0%95%EC%84%9C%EA%B3%B5%ED%95%AD%EB%8F%99','P115000025','P11500');"/>
+    <hyperlink ref="D30" r:id="rId60" display="javascript:ahflPop('0','P11500','','P115000025');"/>
+    <hyperlink ref="C31" r:id="rId61" display="javascript:mapPop('','','%EA%B0%95%EC%84%9C%ED%99%94%EA%B3%A1%EB%8F%99(SJ%EB%9D%BC%EB%B2%A8%EB%9D%BC)','P115000024','P11500');"/>
+    <hyperlink ref="D31" r:id="rId62" display="javascript:ahflPop('0','P11500','','P115000024');"/>
+    <hyperlink ref="C32" r:id="rId63" display="javascript:mapPop('37.5369615','','%EA%B0%95%EC%84%9C%ED%99%94%EA%B3%A1%EB%8F%991','P115000013','P11500');"/>
+    <hyperlink ref="D32" r:id="rId64" display="javascript:ahflPop('1','P11500','','P115000013');"/>
+    <hyperlink ref="C33" r:id="rId65" display="javascript:mapPop('37.4676262','','%EA%B8%88%EC%B2%9C%EB%8F%85%EC%82%B0%EB%8F%991','P115450005','P11545');"/>
+    <hyperlink ref="D33" r:id="rId66" display="javascript:ahflPop('2','P11545','','P115450005');"/>
+    <hyperlink ref="C34" r:id="rId67" display="javascript:mapPop('','','%EC%98%81%EB%93%B1%ED%8F%AC%EB%8C%80%EB%A6%BC%EB%8F%99(%EB%8D%B0%EC%97%90%EC%9D%B4%EC%B9%98%EB%8C%80%EB%A6%BC4%EC%B0%A8)','P115600012','P11560');"/>
+    <hyperlink ref="D34" r:id="rId68" display="javascript:ahflPop('0','P11560','','P115600012');"/>
+    <hyperlink ref="C35" r:id="rId69" display="javascript:mapPop('37.5171475','','%EC%98%81%EB%93%B1%ED%8F%AC%EC%98%81%EB%93%B1%ED%8F%AC%EB%8F%991%EA%B0%80(%EB%AA%85%EB%82%A8%EB%8D%94%EB%B8%94%EB%A0%88%EC%8A%A4)','P115600010','P11560');"/>
+    <hyperlink ref="D35" r:id="rId70" display="javascript:ahflPop('1','P11560','','P115600010');"/>
+    <hyperlink ref="C36" r:id="rId71" display="javascript:mapPop('37.5238837','','%EC%98%81%EB%93%B1%ED%8F%AC%EC%98%81%EB%93%B1%ED%8F%AC%EB%8F%997%EA%B0%80(%EC%97%AC%EC%9D%98%EB%8F%84%EC%8D%A8%EB%B0%8B)','P115600006','P11560');"/>
+    <hyperlink ref="D36" r:id="rId72" display="javascript:ahflPop('1','P11560','','P115600006');"/>
+    <hyperlink ref="C37" r:id="rId73" display="javascript:mapPop('','','%EC%98%81%EB%93%B1%ED%8F%AC%EB%8C%80%EB%A6%BC%EB%8F%99(%ED%8C%8C%ED%81%AC%EC%97%90%EB%B9%84%EB%89%B4A)','P115600011','P11560');"/>
+    <hyperlink ref="D37" r:id="rId74" display="javascript:ahflPop('0','P11560','','P115600011');"/>
+    <hyperlink ref="C38" r:id="rId75" display="javascript:mapPop('37.5045772','','%EB%8F%99%EC%9E%91%EB%8C%80%EB%B0%A9%EB%8F%99(%EB%B3%B4%EB%9D%BC%EB%A7%A4%EC%84%BC%ED%8A%B8%EB%9F%B4%ED%83%80%EC%9A%B4)','P115900005','P11590');"/>
+    <hyperlink ref="D38" r:id="rId76" display="javascript:ahflPop('2','P11590','','P115900005');"/>
+    <hyperlink ref="C39" r:id="rId77" display="javascript:mapPop('','','%EC%84%9C%EC%B4%88%EC%84%9C%EC%B4%88%EB%8F%99(%EC%95%84%EC%9D%B4%EB%A6%AC%EC%8A%A4%EC%98%88%EB%8B%B9)','P116500015','P11650');"/>
+    <hyperlink ref="D39" r:id="rId78" display="javascript:ahflPop('0','P11650','','P116500015');"/>
+    <hyperlink ref="C40" r:id="rId79" display="javascript:mapPop('37.4849896','','%EC%84%9C%EC%B4%88%EB%B0%A9%EB%B0%B0%EB%8F%99','P116500016','P11650');"/>
+    <hyperlink ref="D40" r:id="rId80" display="javascript:ahflPop('1','P11650','','P116500016');"/>
+    <hyperlink ref="C41" r:id="rId81" display="javascript:mapPop('','','%EA%B0%95%EB%82%A8%EC%97%AD%EC%82%BC%EB%8F%99(%EC%95%84%EB%A5%B4%ED%85%8C%EB%B9%8C)','P116800008','P11680');"/>
+    <hyperlink ref="D41" r:id="rId82" display="javascript:ahflPop('0','P11680','','P116800008');"/>
+    <hyperlink ref="C42" r:id="rId83" display="javascript:mapPop('37.4754298','','%EA%B0%95%EB%82%A8%EA%B0%9C%ED%8F%AC%EB%8F%99(T&amp;K%EA%B0%9C%ED%8F%AC)','P116800009','P11680');"/>
+    <hyperlink ref="D42" r:id="rId84" display="javascript:ahflPop('1','P11680','','P116800009');"/>
+    <hyperlink ref="C43" r:id="rId85" display="javascript:mapPop('37.5129208','','%EC%86%A1%ED%8C%8C%EB%B0%A9%EC%9D%B4%EB%8F%99(%EA%B5%BF%EB%AA%A8%EB%8B%9D%EB%B9%8C)','P117100023','P11710');"/>
+    <hyperlink ref="D43" r:id="rId86" display="javascript:ahflPop('1','P11710','','P117100023');"/>
+    <hyperlink ref="C44" r:id="rId87" display="javascript:mapPop('','','%EC%86%A1%ED%8C%8C%EC%82%BC%EC%A0%84%EB%8F%99(%EC%82%BC%EC%A0%84%ED%8C%8C%ED%81%AC%EB%B9%8C)','P117100024','P11710');"/>
+    <hyperlink ref="D44" r:id="rId88" display="javascript:ahflPop('0','P11710','','P117100024');"/>
+    <hyperlink ref="C45" r:id="rId89" display="javascript:mapPop('37.5311243','','%EA%B0%95%EB%8F%99%EC%84%B1%EB%82%B4%EB%8F%99(%EC%A3%BC%ED%95%A8%ED%95%B4%EB%B8%90%EB%B9%8C)','P117400025','P11740');"/>
+    <hyperlink ref="D45" r:id="rId90" display="javascript:ahflPop('2','P11740','','P117400025');"/>
+    <hyperlink ref="C46" r:id="rId91" display="javascript:mapPop('','','%EA%B0%95%EB%8F%99%EC%84%B1%EB%82%B4%EB%8F%99(%EC%97%98%EB%A6%BC%ED%95%98%EC%9A%B0%EC%8A%A4)','P117400028','P11740');"/>
+    <hyperlink ref="D46" r:id="rId92" display="javascript:ahflPop('0','P11740','','P117400028');"/>
+    <hyperlink ref="C47" r:id="rId93" display="javascript:mapPop('37.7426954','','%EC%9D%98%EC%A0%95%EB%B6%80%EC%8B%9C %EA%B0%80%EB%8A%A5%EB%8F%99(%EB%93%9C%EB%A6%BC)','P411500006','P41150');"/>
+    <hyperlink ref="D47" r:id="rId94" display="javascript:ahflPop('2','P41150','','P411500006');"/>
+    <hyperlink ref="C48" r:id="rId95" display="javascript:mapPop('','','%EC%96%91%EC%A3%BC%EB%8D%95%EC%A0%95%EB%8F%99(%EC%9E%90%EC%9D%B4%EB%B9%8C)','P416300003','P41630');"/>
+    <hyperlink ref="D48" r:id="rId96" display="javascript:ahflPop('0','P41630','','P416300003');"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>